--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H2">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I2">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J2">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>0.3753318685518048</v>
+        <v>0.7530607462995</v>
       </c>
       <c r="R2">
-        <v>0.3753318685518048</v>
+        <v>3.012242985198</v>
       </c>
       <c r="S2">
-        <v>0.0006277506814542581</v>
+        <v>0.001077984856040503</v>
       </c>
       <c r="T2">
-        <v>0.0006277506814542581</v>
+        <v>0.000570644669722288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H3">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I3">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J3">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>13.9131620521029</v>
+        <v>29.81942778133201</v>
       </c>
       <c r="R3">
-        <v>13.9131620521029</v>
+        <v>178.916566687992</v>
       </c>
       <c r="S3">
-        <v>0.02327006495102778</v>
+        <v>0.04268565546939954</v>
       </c>
       <c r="T3">
-        <v>0.02327006495102778</v>
+        <v>0.03389427267561679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H4">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I4">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J4">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>0.5362932878830855</v>
+        <v>0.046509879266</v>
       </c>
       <c r="R4">
-        <v>0.5362932878830855</v>
+        <v>0.279059275596</v>
       </c>
       <c r="S4">
-        <v>0.0008969621424019435</v>
+        <v>6.65775579877061E-05</v>
       </c>
       <c r="T4">
-        <v>0.0008969621424019435</v>
+        <v>5.28654855992479E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.376315545296763</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H5">
-        <v>0.376315545296763</v>
+        <v>1.507353</v>
       </c>
       <c r="I5">
-        <v>0.0398482956720743</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J5">
-        <v>0.0398482956720743</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>9.000492022631406</v>
+        <v>1.336024494539501</v>
       </c>
       <c r="R5">
-        <v>9.000492022631406</v>
+        <v>8.016146967237002</v>
       </c>
       <c r="S5">
-        <v>0.01505351789719032</v>
+        <v>0.001912480738758306</v>
       </c>
       <c r="T5">
-        <v>0.01505351789719032</v>
+        <v>0.001518593141736074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35356565893555</v>
+        <v>0.7536765000000001</v>
       </c>
       <c r="H6">
-        <v>3.35356565893555</v>
+        <v>1.507353</v>
       </c>
       <c r="I6">
-        <v>0.3551112294008332</v>
+        <v>0.07241044948256109</v>
       </c>
       <c r="J6">
-        <v>0.3551112294008332</v>
+        <v>0.05015328104483915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>3.34479954604807</v>
+        <v>18.62960898987675</v>
       </c>
       <c r="R6">
-        <v>3.34479954604807</v>
+        <v>74.518435959507</v>
       </c>
       <c r="S6">
-        <v>0.005594249703498757</v>
+        <v>0.02666775086037503</v>
       </c>
       <c r="T6">
-        <v>0.005594249703498757</v>
+        <v>0.01411690507216475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H7">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I7">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J7">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>123.9882408480958</v>
+        <v>0.12035492296</v>
       </c>
       <c r="R7">
-        <v>123.9882408480958</v>
+        <v>0.72212953776</v>
       </c>
       <c r="S7">
-        <v>0.2073730189366104</v>
+        <v>0.0001722846197180515</v>
       </c>
       <c r="T7">
-        <v>0.2073730189366104</v>
+        <v>0.0001368015042600147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H8">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I8">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J8">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>4.77921992816974</v>
+        <v>4.765770823893334</v>
       </c>
       <c r="R8">
-        <v>4.77921992816974</v>
+        <v>42.89193741504</v>
       </c>
       <c r="S8">
-        <v>0.007993348868307541</v>
+        <v>0.006822064223585857</v>
       </c>
       <c r="T8">
-        <v>0.007993348868307541</v>
+        <v>0.008125524926185757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.35356565893555</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H9">
-        <v>3.35356565893555</v>
+        <v>0.36136</v>
       </c>
       <c r="I9">
-        <v>0.3551112294008332</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J9">
-        <v>0.3551112294008332</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>80.20859445712536</v>
+        <v>0.007433255502222223</v>
       </c>
       <c r="R9">
-        <v>80.20859445712536</v>
+        <v>0.06689929952</v>
       </c>
       <c r="S9">
-        <v>0.1341506118924165</v>
+        <v>1.064049202119542E-05</v>
       </c>
       <c r="T9">
-        <v>0.1341506118924165</v>
+        <v>1.267352231106066E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>4.36549438862542</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H10">
-        <v>4.36549438862542</v>
+        <v>0.36136</v>
       </c>
       <c r="I10">
-        <v>0.4622650148973883</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J10">
-        <v>0.4622650148973883</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>4.354083126550266</v>
+        <v>0.2135247732711112</v>
       </c>
       <c r="R10">
-        <v>4.354083126550266</v>
+        <v>1.92172295944</v>
       </c>
       <c r="S10">
-        <v>0.007282298357308706</v>
+        <v>0.0003056545877697312</v>
       </c>
       <c r="T10">
-        <v>0.007282298357308706</v>
+        <v>0.0003640546160705206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.36549438862542</v>
+        <v>0.1204533333333333</v>
       </c>
       <c r="H11">
-        <v>4.36549438862542</v>
+        <v>0.36136</v>
       </c>
       <c r="I11">
-        <v>0.4622650148973883</v>
+        <v>0.01157271058383726</v>
       </c>
       <c r="J11">
-        <v>0.4622650148973883</v>
+        <v>0.01202332143722344</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>161.4013336031425</v>
+        <v>2.97740277364</v>
       </c>
       <c r="R11">
-        <v>161.4013336031425</v>
+        <v>17.86441664184</v>
       </c>
       <c r="S11">
-        <v>0.2699472270978082</v>
+        <v>0.004262066660742426</v>
       </c>
       <c r="T11">
-        <v>0.2699472270978082</v>
+        <v>0.003384266868396092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H12">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I12">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J12">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>6.221335706620422</v>
+        <v>3.415688101023</v>
       </c>
       <c r="R12">
-        <v>6.221335706620422</v>
+        <v>20.494128606138</v>
       </c>
       <c r="S12">
-        <v>0.01040531875019196</v>
+        <v>0.004889459534246052</v>
       </c>
       <c r="T12">
-        <v>0.01040531875019196</v>
+        <v>0.003882444181018481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.36549438862542</v>
+        <v>3.418481</v>
       </c>
       <c r="H13">
-        <v>4.36549438862542</v>
+        <v>10.255443</v>
       </c>
       <c r="I13">
-        <v>0.4622650148973883</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J13">
-        <v>0.4622650148973883</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.9174069079012</v>
+        <v>39.565288</v>
       </c>
       <c r="N13">
-        <v>23.9174069079012</v>
+        <v>118.695864</v>
       </c>
       <c r="O13">
-        <v>0.3777706836214788</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P13">
-        <v>0.3777706836214788</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q13">
-        <v>104.4113056469135</v>
+        <v>135.253185287528</v>
       </c>
       <c r="R13">
-        <v>104.4113056469135</v>
+        <v>1217.278667587752</v>
       </c>
       <c r="S13">
-        <v>0.1746301706920795</v>
+        <v>0.1936110548686186</v>
       </c>
       <c r="T13">
-        <v>0.1746301706920795</v>
+        <v>0.2306034362563019</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.944953715937822</v>
+        <v>3.418481</v>
       </c>
       <c r="H14">
-        <v>0.944953715937822</v>
+        <v>10.255443</v>
       </c>
       <c r="I14">
-        <v>0.1000617581169043</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J14">
-        <v>0.1000617581169043</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.997386032128483</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N14">
-        <v>0.997386032128483</v>
+        <v>0.185132</v>
       </c>
       <c r="O14">
-        <v>0.01575351394248427</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P14">
-        <v>0.01575351394248427</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q14">
-        <v>0.9424836372842899</v>
+        <v>0.2109567414973333</v>
       </c>
       <c r="R14">
-        <v>0.9424836372842899</v>
+        <v>1.898610673476</v>
       </c>
       <c r="S14">
-        <v>0.00157632430160414</v>
+        <v>0.0003019785239520822</v>
       </c>
       <c r="T14">
-        <v>0.00157632430160414</v>
+        <v>0.000359676183502078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.944953715937822</v>
+        <v>3.418481</v>
       </c>
       <c r="H15">
-        <v>0.944953715937822</v>
+        <v>10.255443</v>
       </c>
       <c r="I15">
-        <v>0.1000617581169043</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J15">
-        <v>0.1000617581169043</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.9720630093316</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N15">
-        <v>36.9720630093316</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O15">
-        <v>0.5839663794538508</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P15">
-        <v>0.5839663794538508</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q15">
-        <v>34.93688832655518</v>
+        <v>6.059860364649668</v>
       </c>
       <c r="R15">
-        <v>34.93688832655518</v>
+        <v>54.53874328184702</v>
       </c>
       <c r="S15">
-        <v>0.05843270260931556</v>
+        <v>0.008674516278948902</v>
       </c>
       <c r="T15">
-        <v>0.05843270260931556</v>
+        <v>0.01033191654858897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.944953715937822</v>
+        <v>3.418481</v>
       </c>
       <c r="H16">
-        <v>0.944953715937822</v>
+        <v>10.255443</v>
       </c>
       <c r="I16">
-        <v>0.1000617581169043</v>
+        <v>0.3284350059443208</v>
       </c>
       <c r="J16">
-        <v>0.1000617581169043</v>
+        <v>0.341223399574173</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4251159554415</v>
+        <v>24.7183095</v>
       </c>
       <c r="N16">
-        <v>1.4251159554415</v>
+        <v>49.436619</v>
       </c>
       <c r="O16">
-        <v>0.02250942298218628</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P16">
-        <v>0.02250942298218628</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q16">
-        <v>1.346668617736725</v>
+        <v>84.49907137786951</v>
       </c>
       <c r="R16">
-        <v>1.346668617736725</v>
+        <v>506.9944282672171</v>
       </c>
       <c r="S16">
-        <v>0.00225233243779461</v>
+        <v>0.1209579967385552</v>
       </c>
       <c r="T16">
-        <v>0.00225233243779461</v>
+        <v>0.09604592640476155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.944953715937822</v>
+        <v>4.597592</v>
       </c>
       <c r="H17">
-        <v>0.944953715937822</v>
+        <v>13.792776</v>
       </c>
       <c r="I17">
-        <v>0.1000617581169043</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J17">
-        <v>0.1000617581169043</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9174069079012</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N17">
-        <v>23.9174069079012</v>
+        <v>1.998366</v>
       </c>
       <c r="O17">
-        <v>0.3777706836214788</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P17">
-        <v>0.3777706836214788</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q17">
-        <v>22.60084253321817</v>
+        <v>4.593835767336</v>
       </c>
       <c r="R17">
-        <v>22.60084253321817</v>
+        <v>27.563014604016</v>
       </c>
       <c r="S17">
-        <v>0.03780039876818998</v>
+        <v>0.00657594412225002</v>
       </c>
       <c r="T17">
-        <v>0.03780039876818998</v>
+        <v>0.005221586519596604</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4033755962673</v>
+        <v>4.597592</v>
       </c>
       <c r="H18">
-        <v>0.4033755962673</v>
+        <v>13.792776</v>
       </c>
       <c r="I18">
-        <v>0.04271370191279979</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J18">
-        <v>0.04271370191279979</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.997386032128483</v>
+        <v>39.565288</v>
       </c>
       <c r="N18">
-        <v>0.997386032128483</v>
+        <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.01575351394248427</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P18">
-        <v>0.01575351394248427</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q18">
-        <v>0.4023211854185033</v>
+        <v>181.905051586496</v>
       </c>
       <c r="R18">
-        <v>0.4023211854185033</v>
+        <v>1637.145464278464</v>
       </c>
       <c r="S18">
-        <v>0.0006728908986184085</v>
+        <v>0.2603918632209808</v>
       </c>
       <c r="T18">
-        <v>0.0006728908986184085</v>
+        <v>0.3101437491401834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4033755962673</v>
+        <v>4.597592</v>
       </c>
       <c r="H19">
-        <v>0.4033755962673</v>
+        <v>13.792776</v>
       </c>
       <c r="I19">
-        <v>0.04271370191279979</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J19">
-        <v>0.04271370191279979</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>36.9720630093316</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N19">
-        <v>36.9720630093316</v>
+        <v>0.185132</v>
       </c>
       <c r="O19">
-        <v>0.5839663794538508</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P19">
-        <v>0.5839663794538508</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q19">
-        <v>14.91362796162132</v>
+        <v>0.2837204673813333</v>
       </c>
       <c r="R19">
-        <v>14.91362796162132</v>
+        <v>2.553484206432</v>
       </c>
       <c r="S19">
-        <v>0.02494336585908871</v>
+        <v>0.0004061377102560761</v>
       </c>
       <c r="T19">
-        <v>0.02494336585908871</v>
+        <v>0.0004837365905674729</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4033755962673</v>
+        <v>4.597592</v>
       </c>
       <c r="H20">
-        <v>0.4033755962673</v>
+        <v>13.792776</v>
       </c>
       <c r="I20">
-        <v>0.04271370191279979</v>
+        <v>0.44171962805982</v>
       </c>
       <c r="J20">
-        <v>0.04271370191279979</v>
+        <v>0.4589190263438705</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4251159554415</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N20">
-        <v>1.4251159554415</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O20">
-        <v>0.02250942298218628</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P20">
-        <v>0.02250942298218628</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q20">
-        <v>0.574856998276258</v>
+        <v>8.150042528722668</v>
       </c>
       <c r="R20">
-        <v>0.574856998276258</v>
+        <v>73.35038275850401</v>
       </c>
       <c r="S20">
-        <v>0.0009614607834902298</v>
+        <v>0.01166655208789086</v>
       </c>
       <c r="T20">
-        <v>0.0009614607834902298</v>
+        <v>0.01389562699586753</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.597592</v>
+      </c>
+      <c r="H21">
+        <v>13.792776</v>
+      </c>
+      <c r="I21">
+        <v>0.44171962805982</v>
+      </c>
+      <c r="J21">
+        <v>0.4589190263438705</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.7183095</v>
+      </c>
+      <c r="N21">
+        <v>49.436619</v>
+      </c>
+      <c r="O21">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P21">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q21">
+        <v>113.644702010724</v>
+      </c>
+      <c r="R21">
+        <v>681.868212064344</v>
+      </c>
+      <c r="S21">
+        <v>0.1626791309184422</v>
+      </c>
+      <c r="T21">
+        <v>0.1291743270976555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.304825</v>
+      </c>
+      <c r="I22">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J22">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.998366</v>
+      </c>
+      <c r="O22">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P22">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q22">
+        <v>1.100708319325</v>
+      </c>
+      <c r="R22">
+        <v>6.60424991595</v>
+      </c>
+      <c r="S22">
+        <v>0.001575632384214383</v>
+      </c>
+      <c r="T22">
+        <v>0.001251120852656916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.304825</v>
+      </c>
+      <c r="I23">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J23">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.565288</v>
+      </c>
+      <c r="N23">
+        <v>118.695864</v>
+      </c>
+      <c r="O23">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P23">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q23">
+        <v>43.58545097153333</v>
+      </c>
+      <c r="R23">
+        <v>392.2690587438</v>
+      </c>
+      <c r="S23">
+        <v>0.06239132277427531</v>
+      </c>
+      <c r="T23">
+        <v>0.07431214831243592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.304825</v>
+      </c>
+      <c r="I24">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J24">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.185132</v>
+      </c>
+      <c r="O24">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P24">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q24">
+        <v>0.06798098465555555</v>
+      </c>
+      <c r="R24">
+        <v>0.6118288619</v>
+      </c>
+      <c r="S24">
+        <v>9.73128294331059E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001159059480065614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.304825</v>
+      </c>
+      <c r="I25">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J25">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>1.952795021102778</v>
+      </c>
+      <c r="R25">
+        <v>17.575155189925</v>
+      </c>
+      <c r="S25">
+        <v>0.002795370054865236</v>
+      </c>
+      <c r="T25">
+        <v>0.003329468664365891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.101608333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.304825</v>
+      </c>
+      <c r="I26">
+        <v>0.1058384526655689</v>
+      </c>
+      <c r="J26">
+        <v>0.1099595231037524</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>27.2298957311125</v>
+      </c>
+      <c r="R26">
+        <v>163.379374386675</v>
+      </c>
+      <c r="S26">
+        <v>0.03897881462278085</v>
+      </c>
+      <c r="T26">
+        <v>0.03095087932628713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.416583</v>
+      </c>
+      <c r="H27">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J27">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N27">
+        <v>1.998366</v>
+      </c>
+      <c r="O27">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P27">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q27">
+        <v>0.416242651689</v>
+      </c>
+      <c r="R27">
+        <v>1.664970606756</v>
+      </c>
+      <c r="S27">
+        <v>0.000595839415563469</v>
+      </c>
+      <c r="T27">
+        <v>0.00031541499363045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.416583</v>
+      </c>
+      <c r="H28">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J28">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>39.565288</v>
+      </c>
+      <c r="N28">
+        <v>118.695864</v>
+      </c>
+      <c r="O28">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P28">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q28">
+        <v>16.482226370904</v>
+      </c>
+      <c r="R28">
+        <v>98.89335822542401</v>
+      </c>
+      <c r="S28">
+        <v>0.02359383424109531</v>
+      </c>
+      <c r="T28">
+        <v>0.01873453370779965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.416583</v>
+      </c>
+      <c r="H29">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J29">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.185132</v>
+      </c>
+      <c r="O29">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P29">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q29">
+        <v>0.025707614652</v>
+      </c>
+      <c r="R29">
+        <v>0.154245687912</v>
+      </c>
+      <c r="S29">
+        <v>3.679971292615938E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.922057751222373E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="H21">
-        <v>0.4033755962673</v>
-      </c>
-      <c r="I21">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="J21">
-        <v>0.04271370191279979</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N21">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O21">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P21">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q21">
-        <v>9.647698272642288</v>
-      </c>
-      <c r="R21">
-        <v>9.647698272642288</v>
-      </c>
-      <c r="S21">
-        <v>0.01613598437160244</v>
-      </c>
-      <c r="T21">
-        <v>0.01613598437160244</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.416583</v>
+      </c>
+      <c r="H30">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J30">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N30">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P30">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q30">
+        <v>0.7384668249690003</v>
+      </c>
+      <c r="R30">
+        <v>4.430800949814001</v>
+      </c>
+      <c r="S30">
+        <v>0.001057094076296861</v>
+      </c>
+      <c r="T30">
+        <v>0.0008393788140718712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.416583</v>
+      </c>
+      <c r="H31">
+        <v>0.8331660000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.04002375326389206</v>
+      </c>
+      <c r="J31">
+        <v>0.02772144849614155</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24.7183095</v>
+      </c>
+      <c r="N31">
+        <v>49.436619</v>
+      </c>
+      <c r="O31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q31">
+        <v>10.2972275264385</v>
+      </c>
+      <c r="R31">
+        <v>41.188910105754</v>
+      </c>
+      <c r="S31">
+        <v>0.01474018581801026</v>
+      </c>
+      <c r="T31">
+        <v>0.007802900403127349</v>
       </c>
     </row>
   </sheetData>
